--- a/country_data_scraped.xlsx
+++ b/country_data_scraped.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamza\Documents\web_scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CE13D4-9B7D-4776-8673-1EE6EF99AB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A653E90-4BA3-4397-B308-6FF7AD492264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="490">
   <si>
     <t>country name</t>
   </si>
@@ -1498,13 +1498,16 @@
   </si>
   <si>
     <t>vlookup key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">website url </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1532,8 +1535,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1549,6 +1568,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1577,18 +1602,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1892,7 +1920,7 @@
   <dimension ref="A1:I251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1984,7 +2012,7 @@
         <v>647500</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1999,6 +2027,9 @@
       </c>
       <c r="E5">
         <v>443</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -6184,7 +6215,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H5" r:id="rId1" xr:uid="{B6DE8428-CA5C-4658-9544-34D434224C0A}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/country_data_scraped.xlsx
+++ b/country_data_scraped.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamza\Documents\web_scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A653E90-4BA3-4397-B308-6FF7AD492264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B16B10-188A-4333-9BA9-60216F15DF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1920,7 +1920,7 @@
   <dimension ref="A1:I251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
